--- a/data_capture/excels/BRAV3_SA_dados.xlsx
+++ b/data_capture/excels/BRAV3_SA_dados.xlsx
@@ -1018,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1121"/>
+  <dimension ref="A1:H1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30167,6 +30167,58 @@
         <v>0</v>
       </c>
       <c r="H1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8">
+      <c r="A1122" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1122">
+        <v>19.05999946594238</v>
+      </c>
+      <c r="C1122">
+        <v>19.22999954223633</v>
+      </c>
+      <c r="D1122">
+        <v>18.56999969482422</v>
+      </c>
+      <c r="E1122">
+        <v>18.95000076293945</v>
+      </c>
+      <c r="F1122">
+        <v>6445200</v>
+      </c>
+      <c r="G1122">
+        <v>0</v>
+      </c>
+      <c r="H1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8">
+      <c r="A1123" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1123">
+        <v>18.89999961853027</v>
+      </c>
+      <c r="C1123">
+        <v>19.03000068664551</v>
+      </c>
+      <c r="D1123">
+        <v>18.35000038146973</v>
+      </c>
+      <c r="E1123">
+        <v>18.54999923706055</v>
+      </c>
+      <c r="F1123">
+        <v>4976300</v>
+      </c>
+      <c r="G1123">
+        <v>0</v>
+      </c>
+      <c r="H1123">
         <v>0</v>
       </c>
     </row>
@@ -30220,31 +30272,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C2">
-        <v>32.62225889989308</v>
+        <v>32.59794114702738</v>
       </c>
       <c r="D2">
-        <v>32.77999877929688</v>
+        <v>32.72999954223633</v>
       </c>
       <c r="E2">
         <v>38</v>
       </c>
       <c r="F2">
-        <v>7.850992691339195</v>
+        <v>7.865086203296982</v>
       </c>
       <c r="G2">
         <v>15.73999977111816</v>
       </c>
       <c r="H2">
-        <v>27.70749950408936</v>
+        <v>27.70000076293945</v>
       </c>
       <c r="I2">
-        <v>37.80999946594238</v>
+        <v>37.77999973297119</v>
       </c>
       <c r="J2">
-        <v>10.10249996185303</v>
+        <v>10.07999897003174</v>
       </c>
       <c r="K2">
         <v>50.34999847412109</v>
@@ -30255,31 +30307,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C3">
-        <v>33.32002678768976</v>
+        <v>33.2947326224968</v>
       </c>
       <c r="D3">
-        <v>33.40500068664551</v>
+        <v>33.40000152587891</v>
       </c>
       <c r="E3">
         <v>32.58000183105469</v>
       </c>
       <c r="F3">
-        <v>8.035617886500026</v>
+        <v>8.050749939034613</v>
       </c>
       <c r="G3">
         <v>15.89999961853027</v>
       </c>
       <c r="H3">
-        <v>28.22249984741211</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="I3">
-        <v>38.64000034332275</v>
+        <v>38.6200008392334</v>
       </c>
       <c r="J3">
-        <v>10.41750049591064</v>
+        <v>10.42000007629395</v>
       </c>
       <c r="K3">
         <v>51.58000183105469</v>
@@ -30290,31 +30342,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C4">
-        <v>31.8793214227472</v>
+        <v>31.85540106377287</v>
       </c>
       <c r="D4">
-        <v>32.05500030517578</v>
+        <v>32.04999923706055</v>
       </c>
       <c r="E4">
         <v>26.35000038146973</v>
       </c>
       <c r="F4">
-        <v>7.655597045658031</v>
+        <v>7.669702228392546</v>
       </c>
       <c r="G4">
         <v>15.26000022888184</v>
       </c>
       <c r="H4">
-        <v>27.21999931335449</v>
+        <v>27.21249914169312</v>
       </c>
       <c r="I4">
-        <v>36.90250110626221</v>
+        <v>36.90000152587891</v>
       </c>
       <c r="J4">
-        <v>9.682501792907715</v>
+        <v>9.687502384185791</v>
       </c>
       <c r="K4">
         <v>48.86999893188477</v>
@@ -30325,31 +30377,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C5">
-        <v>32.54821424739701</v>
+        <v>32.52361850007545</v>
       </c>
       <c r="D5">
-        <v>32.72500038146973</v>
+        <v>32.69999885559082</v>
       </c>
       <c r="E5">
         <v>36</v>
       </c>
       <c r="F5">
-        <v>7.8307752874009</v>
+        <v>7.845430736126763</v>
       </c>
       <c r="G5">
         <v>15.61999988555908</v>
       </c>
       <c r="H5">
-        <v>27.72749948501587</v>
+        <v>27.71999931335449</v>
       </c>
       <c r="I5">
-        <v>37.70250034332275</v>
+        <v>37.70000076293945</v>
       </c>
       <c r="J5">
-        <v>9.975000858306885</v>
+        <v>9.980001449584961</v>
       </c>
       <c r="K5">
         <v>51.31000137329102</v>
@@ -30360,31 +30412,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C6">
-        <v>5017802.767857143</v>
+        <v>5019037.967914439</v>
       </c>
       <c r="D6">
-        <v>4128400</v>
+        <v>4136600</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4295197.791091193</v>
+        <v>4291576.266664521</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2511025</v>
+        <v>2515350</v>
       </c>
       <c r="I6">
-        <v>6089275</v>
+        <v>6095025</v>
       </c>
       <c r="J6">
-        <v>3578250</v>
+        <v>3579675</v>
       </c>
       <c r="K6">
         <v>43334300</v>
@@ -30395,7 +30447,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -30430,7 +30482,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C8">
         <v>0</v>
